--- a/Output_testing/R1_201907/Country/HKD/MN/LAO PEO DEM REP_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LAO PEO DEM REP_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>37.188678</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>24.671567405367</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>45.895418</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>26.7158765195808</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>50.844176</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>26.09338454572559</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>27.130964</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>28.80618479620481</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-4.67412903867539</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>16.438401</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>10.90549974129094</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>39.164072</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>22.79753746999257</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>19.939357</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.2329381794978</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>11.083514</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.76787350701299</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>60.4629887411833</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>12.509649</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>8.299102445130796</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>13.876054</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.077297503707999</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>12.751289</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.543999991870864</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>10.833287</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>11.50219606175156</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>49.06668262833664</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>5.927792</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.932592599634631</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>6.089111</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.544491905270829</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>9.763064999999999</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.010434418091749</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>7.456534</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.916943030228643</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>90.86528271943072</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>5.609868</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.721676702172939</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>7.383066</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.297707444170467</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>8.251552999999999</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.234721898697615</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>5.522962</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.863981242775484</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>23.43825396360659</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>14.629027</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>9.70513191421953</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.819036</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.640970296430309</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>5.164137</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.650250691206201</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>5.340663</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>5.670426060506128</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>90.73966731845819</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.766839</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.825813789465686</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>8.399846</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.889578487322954</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>7.608866</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.904892990986754</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>4.037602</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.286906626153281</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-6.991633720077117</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>10.821848</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>7.179388102546587</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>12.061697</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>7.021154217804446</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>9.558146000000001</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.905269368947762</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>3.347527</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.554222451228976</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-49.75686873222931</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.274149</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.8452909495191239</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.986839</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.738648984695339</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>8.776916</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.504339775582787</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.62368</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.785680999986091</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-58.31151862617158</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>6.233049</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>4.135105005465785</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>4.027269</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.344286772050657</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.102228</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.105275788091104</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>2.265874</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.405782012350014</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-13.55608313269421</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>34.335663</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>22.77883134518698</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>29.088392</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>16.93245039897364</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>58.094928</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>29.81449235130177</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>14.541903</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>15.43980321180202</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-53.99448651468231</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,519 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>4.012844599257708</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.668726</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>20.37525327158331</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>4.587727</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>52.43512082054189</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.577533</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>36.06897753275521</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-44.01404676814315</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.549447</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>16.74096982069134</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.848775</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>21.1304509825884</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.453242</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>33.22716738582092</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>17.38636299383118</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.591448</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>14.73665710211091</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.474052</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>44.91253941896071</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.368094</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>15.63653944183218</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.952869</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>21.78655568704992</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>23.40640739555962</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.549824</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>5.091317940963846</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>6.12809067503542</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.834689245131632</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>5.155549499091835</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>29.46019497743635</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.8279836547863012</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.720631922121845</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.911362457053903</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.036762836400485</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-36.10005236465887</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.7926478577626754</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.9979128898097225</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.0332436503782</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.9734647626608037</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-24.01756076667737</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.8623656816072455</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>3.4529029112902</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.353770684417339</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.7484584978791199</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-51.83833806588298</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.1880131086917449</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.6162307094651208</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.0598330845526634</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-97.02222222222223</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.496872883822363</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.804573361161469</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.578244759033253</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>7.774518</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>71.9912971709972</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1.250895019880867</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1812,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>36.755321</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>26.2658612473173</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>45.226692</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>26.83937302959045</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>46.256449</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>24.85498466752598</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>25.553431</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>28.45249751216039</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-0.3514333876770803</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>16.438401</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>11.74710893679209</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>39.164072</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>23.24156579406114</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>19.939357</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>10.71401768249281</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>11.083514</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>12.34095157362606</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>60.4629887411833</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>12.424049</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.878397420712808</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>13.843302</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.215182891096159</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>12.660887</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.803076307528038</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>10.790711</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>12.01492973221255</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>49.63456350077988</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>5.927792</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.236082230786599</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>6.089111</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.613528080886007</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>9.763064999999999</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.245989178353477</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>7.456534</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>8.302486467838285</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>90.86528271943072</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>4.01842</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.871618565198895</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>5.909014</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.506651138294006</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>6.883459</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.698690055186546</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>4.570093</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.088575374196976</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>23.44489607609885</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>5.766839</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.121062988665453</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>8.399846</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.984812954816887</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>7.608866</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.088473107117663</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>4.037602</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.495672649989499</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-6.991633720077117</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>14.629027</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>10.45410522643126</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2.269589</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.34686715081561</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>3.315362</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.781443959896235</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>3.887421</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.328453440605297</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>148.8784078628609</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>10.272024</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>7.340530561904582</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>11.86057</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>7.038548443330093</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>9.222636</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.955600382860627</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>3.122041</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.476240188073482</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-51.88333727364891</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.274149</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.9105245154139204</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.986839</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.772512703346265</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>8.776916</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>4.716101588519331</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2.62368</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.921339552121395</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-58.31151862617158</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>6.233049</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>4.454223109131053</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>4.027269</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.389946516130468</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4.102228</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.204250785500109</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>2.265874</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.522940044640929</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-13.55608313269421</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>26.196645</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>18.72048519764604</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>28.732446</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>17.05101129763291</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>57.576096</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>30.93737228501919</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>14.419953</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>16.05591346453514</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-53.8695570138624</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2270,525 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>35.474195</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>86.46801946424051</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>24.475404</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>70.18211463493587</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>21.464366</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>47.81402905272008</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>17.577844</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>62.75441414353816</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>105.8649425920053</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2.110515</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>6.051806363186147</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>14.349384</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>31.96469271277972</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>5.580589</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>19.92318246031046</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-1.023342546531858</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>5.790566</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>16.60418626034373</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>6.344691</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>14.13343584453096</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>2.407805</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.59607083478963</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-38.539150260464</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WOOD IN THE ROUGH OR ROUGHLY SQUARED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2.293317</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.58993879899667</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.625911144230083</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.714805</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.122001261668379</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.315246</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.205899858425667</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.966983</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.772780043019277</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.828033</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.072126936865084</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.8991725611761006</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-85.89201972606668</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL RUBBER, BALATA, GUTTA-PERCHA, GUAYULE, CHICLE AND SIMILAR NATURAL GUMS, IN PRIMARY FORMS (INCLUDING LATEX) OR IN PLATES, SHEETS OR STRIP</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.7297934026953435</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.294524951866316</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.1654495544486423</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.07380828650277843</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.2495561490625133</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1185790462869241</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1944126012610258</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.9006966787093331</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.1143248628283721</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1.456997</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>3.551416598892238</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.503426</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>4.311006097269859</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.623902</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.389804308874074</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.1225467708036942</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-94.20370614279491</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
